--- a/earlywarning-pom/earlywarning-config/src/baf-instances/64_Inst_BusinessLine_ISBA.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/64_Inst_BusinessLine_ISBA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="26175" windowHeight="11400"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="26175" windowHeight="11400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Business_Line" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="r Subset_AnalysisUnit" sheetId="10" r:id="rId10"/>
     <sheet name="Fields definition" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="108">
   <si>
     <t>Business_Line</t>
   </si>
@@ -492,9 +492,6 @@
     <t>FILTER_Retail</t>
   </si>
   <si>
-    <t>Retail_SEGMENT</t>
-  </si>
-  <si>
     <t>Retail_EQUALS</t>
   </si>
   <si>
@@ -508,9 +505,6 @@
   </si>
   <si>
     <t>FILTER_SME_CORPORATE</t>
-  </si>
-  <si>
-    <t>SME_CORPORATE_SEGMENT</t>
   </si>
   <si>
     <t>SME_CORPORATE_EQUALS</t>
@@ -700,7 +694,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -726,6 +720,54 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10001250" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -748,15 +790,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10001250" cy="9525000"/>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10106025" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -796,7 +838,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -839,12 +881,12 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -887,12 +929,12 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -935,12 +977,12 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -983,12 +1025,12 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1031,12 +1073,12 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="9" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1079,55 +1121,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10106025" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1175,7 +1169,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1231,7 +1225,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1279,12 +1273,108 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10839450" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10839450" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1332,7 +1422,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1358,6 +1448,102 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10448925" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -1380,15 +1566,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10448925" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1428,7 +1614,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1471,12 +1657,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1519,12 +1705,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1567,12 +1753,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1615,12 +1801,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="9" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1663,103 +1849,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10448925" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10448925" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1807,7 +1897,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1863,7 +1953,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1911,12 +2001,108 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10439400" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10439400" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1964,7 +2150,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1990,6 +2176,102 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9667875" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -2012,15 +2294,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9667875" cy="9544050"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2060,15 +2342,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9667875" cy="9553575"/>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9667875" cy="9544050"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2103,12 +2385,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2151,12 +2433,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2199,12 +2481,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2247,20 +2529,20 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9667875" cy="9544050"/>
+        <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9667875" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2295,103 +2577,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9667875" cy="9544050"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9667875" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2439,7 +2625,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1016000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2495,7 +2681,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2543,7 +2729,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2557,6 +2743,102 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9810750" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9810750" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9810750" cy="9534525"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3213,6 +3495,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3228,7 +3606,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3254,6 +3632,102 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10067925" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -3276,15 +3750,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10067925" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3324,7 +3798,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3367,12 +3841,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3415,12 +3889,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3463,12 +3937,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3511,12 +3985,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="9" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3559,103 +4033,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10067925" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10067925" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3703,7 +4081,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3759,7 +4137,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3807,12 +4185,108 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11744325" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11744325" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3860,7 +4334,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3886,6 +4360,54 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8867775" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -3908,15 +4430,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8867775" cy="9525000"/>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9086850" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3951,12 +4473,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3999,12 +4521,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4047,12 +4569,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4095,12 +4617,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4143,12 +4665,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4191,12 +4713,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="9" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4239,55 +4761,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9086850" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4335,7 +4809,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4391,7 +4865,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4439,7 +4913,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4453,6 +4927,102 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9725025" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10077450" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10077450" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4492,7 +5062,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4518,6 +5088,102 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9715500" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -4540,15 +5206,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9715500" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4588,7 +5254,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4631,12 +5297,12 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4679,12 +5345,12 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4727,12 +5393,12 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4775,12 +5441,12 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="9" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4823,103 +5489,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9715500" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9715500" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4967,7 +5537,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5023,7 +5593,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5071,7 +5641,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5085,6 +5655,102 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="10048875" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10344150" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10744200" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5741,6 +6407,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6373,6 +7135,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6973,6 +7831,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7273,8 +8227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7317,7 +8271,7 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -7326,7 +8280,7 @@
         <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7334,7 +8288,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>70</v>
@@ -7343,7 +8297,7 @@
         <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7351,16 +8305,16 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -7375,7 +8329,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7422,19 +8376,19 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
         <v>103</v>
-      </c>
-      <c r="C3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7442,19 +8396,19 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7462,19 +8416,19 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -8322,7 +9276,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8370,7 +9324,7 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -8379,7 +9333,7 @@
         <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -8390,7 +9344,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
@@ -8399,7 +9353,7 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -8410,16 +9364,16 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -8484,8 +9438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8532,7 +9486,7 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -8541,10 +9495,10 @@
         <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8552,19 +9506,19 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8572,19 +9526,19 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
         <v>89</v>
-      </c>
-      <c r="F5" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -8599,7 +9553,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8645,7 +9599,7 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -8654,7 +9608,7 @@
         <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
         <v>68</v>
@@ -8665,16 +9619,16 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
         <v>68</v>
@@ -8685,16 +9639,16 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -8712,14 +9666,14 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="17.42578125" customWidth="1"/>
@@ -8780,16 +9734,16 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
         <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
         <v>66</v>
@@ -8809,16 +9763,16 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
         <v>69</v>
@@ -8835,19 +9789,19 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
         <v>45</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/64_Inst_BusinessLine_ISBA.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/64_Inst_BusinessLine_ISBA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="26175" windowHeight="11400" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="26175" windowHeight="11400" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Business_Line" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="103">
   <si>
     <t>Business_Line</t>
   </si>
@@ -492,9 +492,6 @@
     <t>FILTER_Retail</t>
   </si>
   <si>
-    <t>Retail_EQUALS</t>
-  </si>
-  <si>
     <t>(SEGMENT='SME Retail')</t>
   </si>
   <si>
@@ -505,12 +502,6 @@
   </si>
   <si>
     <t>FILTER_SME_CORPORATE</t>
-  </si>
-  <si>
-    <t>SME_CORPORATE_EQUALS</t>
-  </si>
-  <si>
-    <t>FILTER_VAR_SME_CORPORATE</t>
   </si>
   <si>
     <t>SME_CORPORATE</t>
@@ -570,13 +561,7 @@
     <t>FV_ISBA_0000002</t>
   </si>
   <si>
-    <t>FILTER_ISBA_VAR_RETAIL</t>
-  </si>
-  <si>
     <t>FV_ISBA_0000003</t>
-  </si>
-  <si>
-    <t>FILTER_ISBA_VAR_SME_CORPORATE</t>
   </si>
   <si>
     <t>BRAU_ISBA_0000001</t>
@@ -1407,6 +1392,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10839450" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10839450" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2135,6 +2216,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10439400" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11049000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2863,6 +3040,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9810750" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9810750" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3591,6 +3864,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4319,6 +4688,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11744325" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11744325" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5047,6 +5512,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10077450" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10077450" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5775,6 +6336,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10744200" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10744200" cy="9534525"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6503,6 +7160,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7231,6 +7984,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7927,6 +8776,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8271,7 +9216,7 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -8280,7 +9225,7 @@
         <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8288,7 +9233,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>70</v>
@@ -8297,7 +9242,7 @@
         <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8305,16 +9250,16 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -8328,15 +9273,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="6" width="19.42578125" customWidth="1"/>
   </cols>
@@ -8376,19 +9321,19 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8396,19 +9341,19 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8416,19 +9361,19 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -9324,7 +10269,7 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -9333,7 +10278,7 @@
         <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -9344,7 +10289,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
@@ -9353,7 +10298,7 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -9364,16 +10309,16 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -9438,7 +10383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -9486,7 +10431,7 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -9495,10 +10440,10 @@
         <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9506,7 +10451,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -9515,10 +10460,10 @@
         <v>64</v>
       </c>
       <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
         <v>86</v>
-      </c>
-      <c r="F4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9526,7 +10471,7 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
@@ -9535,10 +10480,10 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -9553,7 +10498,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9599,7 +10544,7 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -9608,7 +10553,7 @@
         <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
         <v>68</v>
@@ -9619,16 +10564,16 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
         <v>68</v>
@@ -9639,16 +10584,16 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -9666,7 +10611,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9734,16 +10679,16 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
         <v>66</v>
@@ -9758,21 +10703,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
         <v>69</v>
@@ -9780,8 +10725,8 @@
       <c r="J4" t="s">
         <v>45</v>
       </c>
-      <c r="K4">
-        <v>1</v>
+      <c r="K4" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
@@ -9789,25 +10734,25 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
         <v>45</v>
       </c>
       <c r="K5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/64_Inst_BusinessLine_ISBA.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/64_Inst_BusinessLine_ISBA.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alberto.collu\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="26175" windowHeight="11400" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="26175" windowHeight="11400" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Business_Line" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="113">
   <si>
     <t>Business_Line</t>
   </si>
@@ -584,11 +584,41 @@
   <si>
     <t>COUNTERPARTY_ISBA_BL_ISBA_00003</t>
   </si>
+  <si>
+    <t>BL_ISBA_000004</t>
+  </si>
+  <si>
+    <t>Corporate Project Finance</t>
+  </si>
+  <si>
+    <t>(SEGMENT = 'Corporate Project Finance')</t>
+  </si>
+  <si>
+    <t>FI_ISBA_0000004</t>
+  </si>
+  <si>
+    <t>FILTER_Corporate_Project_Finance</t>
+  </si>
+  <si>
+    <t>R_FILTER_ISBA_VAR_04</t>
+  </si>
+  <si>
+    <t>R_FILTER_ISBA_OPERATOR_04</t>
+  </si>
+  <si>
+    <t>FV_ISBA_0000004</t>
+  </si>
+  <si>
+    <t>BRAU_ISBA_0000004</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_ISBA_BL_ISBA_00004</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -684,7 +714,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -727,7 +763,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -775,7 +817,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -823,7 +871,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -871,7 +925,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -919,7 +979,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -967,7 +1033,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1015,7 +1087,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1063,7 +1141,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1111,7 +1195,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvPr id="10" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1159,7 +1249,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvPr id="11" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1215,7 +1311,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvPr id="12" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1263,7 +1365,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvPr id="13" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1311,7 +1419,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvPr id="14" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1359,7 +1473,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvPr id="15" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1407,7 +1527,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvPr id="16" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1455,7 +1581,67 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvPr id="17" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10839450" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1508,7 +1694,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10242" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="10242" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002280000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1551,7 +1743,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1599,7 +1797,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1647,7 +1851,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1695,7 +1905,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1743,7 +1959,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1791,7 +2013,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1839,7 +2067,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1887,7 +2121,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1935,7 +2175,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvPr id="10" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1983,7 +2229,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvPr id="11" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2039,7 +2291,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvPr id="12" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2087,7 +2345,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvPr id="13" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2135,7 +2399,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvPr id="14" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2183,7 +2453,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvPr id="15" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2231,7 +2507,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvPr id="16" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2279,7 +2561,67 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvPr id="17" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11049000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2332,7 +2674,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2375,7 +2723,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2423,7 +2777,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2471,7 +2831,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2519,7 +2885,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2567,7 +2939,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2615,7 +2993,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2663,7 +3047,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2711,7 +3101,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2759,7 +3155,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvPr id="10" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2807,7 +3209,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvPr id="11" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2863,7 +3271,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvPr id="12" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2911,7 +3325,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvPr id="13" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2959,7 +3379,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvPr id="14" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3007,7 +3433,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvPr id="15" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3055,7 +3487,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvPr id="16" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3103,7 +3541,67 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvPr id="17" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9810750" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3156,7 +3654,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3074" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="3074" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3199,7 +3703,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3247,7 +3757,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3295,7 +3811,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3343,7 +3865,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3391,7 +3919,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3439,7 +3973,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3487,7 +4027,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3535,7 +4081,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3583,7 +4135,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvPr id="10" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3631,7 +4189,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvPr id="11" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3687,7 +4251,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvPr id="12" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3735,7 +4305,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvPr id="13" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3783,7 +4359,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvPr id="14" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3831,7 +4413,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvPr id="15" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3879,7 +4467,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvPr id="16" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3927,7 +4521,67 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvPr id="17" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3980,7 +4634,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4098" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="4098" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4023,7 +4683,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4071,7 +4737,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4119,7 +4791,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4167,7 +4845,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4215,7 +4899,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4263,7 +4953,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4311,7 +5007,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4359,7 +5061,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4407,7 +5115,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvPr id="10" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4455,7 +5169,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvPr id="11" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4511,7 +5231,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvPr id="12" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4559,7 +5285,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvPr id="13" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4607,7 +5339,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvPr id="14" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4655,7 +5393,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvPr id="15" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4703,7 +5447,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvPr id="16" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4751,7 +5501,67 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvPr id="17" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11744325" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4804,7 +5614,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5122" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="5122" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002140000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4847,7 +5663,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4895,7 +5717,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4943,7 +5771,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4991,7 +5825,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5039,7 +5879,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5087,7 +5933,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5135,7 +5987,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5183,7 +6041,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5231,7 +6095,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvPr id="10" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5279,7 +6149,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvPr id="11" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5335,7 +6211,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvPr id="12" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5383,7 +6265,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvPr id="13" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5431,7 +6319,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvPr id="14" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5479,7 +6373,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvPr id="15" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5527,7 +6427,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvPr id="16" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5575,7 +6481,67 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvPr id="17" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10077450" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5628,7 +6594,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6146" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="6146" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002180000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5671,7 +6643,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5719,7 +6697,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5767,7 +6751,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5815,7 +6805,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5863,7 +6859,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5911,7 +6913,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5959,7 +6967,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6007,7 +7021,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6055,7 +7075,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvPr id="10" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6103,7 +7129,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvPr id="11" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6159,7 +7191,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvPr id="12" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6207,7 +7245,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvPr id="13" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6255,7 +7299,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvPr id="14" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6303,7 +7353,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvPr id="15" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6351,7 +7407,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvPr id="16" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6399,7 +7461,67 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvPr id="17" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10744200" cy="9534525"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6452,7 +7574,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7170" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="7170" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000021C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6495,7 +7623,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6543,7 +7677,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6591,7 +7731,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6639,7 +7785,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6687,7 +7839,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6735,7 +7893,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6783,7 +7947,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6831,7 +8001,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6879,7 +8055,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvPr id="10" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6927,7 +8109,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvPr id="11" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6983,7 +8171,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvPr id="12" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7031,7 +8225,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvPr id="13" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7079,7 +8279,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvPr id="14" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7127,7 +8333,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvPr id="15" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7175,7 +8387,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvPr id="16" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7223,7 +8441,67 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvPr id="17" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7276,7 +8554,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8194" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="8194" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7319,7 +8603,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7367,7 +8657,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7415,7 +8711,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7463,7 +8765,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7511,7 +8819,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7559,7 +8873,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7607,7 +8927,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7655,7 +8981,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7703,7 +9035,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvPr id="10" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7751,7 +9089,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvPr id="11" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7807,7 +9151,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvPr id="12" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7855,7 +9205,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvPr id="13" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7903,7 +9259,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvPr id="14" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7951,7 +9313,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvPr id="15" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7999,7 +9367,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvPr id="16" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8047,7 +9421,67 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvPr id="17" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8100,7 +9534,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9218" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="9218" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002240000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8143,7 +9583,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8191,7 +9637,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8239,7 +9691,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8287,7 +9745,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8335,7 +9799,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8383,7 +9853,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8431,7 +9907,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8479,7 +9961,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8527,7 +10015,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvPr id="10" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8575,7 +10069,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvPr id="11" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8631,7 +10131,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvPr id="12" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8679,7 +10185,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvPr id="13" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8727,7 +10239,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvPr id="14" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8775,7 +10293,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvPr id="15" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8823,7 +10347,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvPr id="16" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8871,7 +10401,67 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvPr id="17" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9170,19 +10760,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
@@ -9260,6 +10850,23 @@
       </c>
       <c r="E5" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -9271,19 +10878,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.85546875" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="6" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -9373,6 +10981,26 @@
         <v>81</v>
       </c>
       <c r="F5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -9387,7 +11015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10218,17 +11846,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
@@ -10321,6 +11949,26 @@
         <v>81</v>
       </c>
       <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
     </row>
@@ -10381,10 +12029,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10486,6 +12134,26 @@
         <v>86</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10495,10 +12163,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10599,6 +12267,26 @@
         <v>68</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10608,10 +12296,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10620,8 +12308,9 @@
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.3">
@@ -10753,6 +12442,32 @@
       </c>
       <c r="K5" s="3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
